--- a/tumlknexpectimax/excel_data/input_data_business_munich_phillipson.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_business_munich_phillipson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="825" windowWidth="13680" windowHeight="11070" tabRatio="847"/>
+    <workbookView xWindow="480" yWindow="825" windowWidth="13680" windowHeight="11070" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1128,7 +1127,7 @@
                   <c:v>5940</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31200</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2000</c:v>
@@ -1229,7 +1228,7 @@
                   <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75000</c:v>
+                  <c:v>75130</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>210130</c:v>
@@ -1280,11 +1279,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="84147200"/>
-        <c:axId val="83896576"/>
+        <c:axId val="62343680"/>
+        <c:axId val="61797440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84147200"/>
+        <c:axId val="62343680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,14 +1305,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83896576"/>
+        <c:crossAx val="61797440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83896576"/>
+        <c:axId val="61797440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,21 +1342,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84147200"/>
+        <c:crossAx val="62343680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1403,6 +1399,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1484,7 +1481,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>36062.342937580564</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1543,11 +1540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100412416"/>
-        <c:axId val="83900608"/>
+        <c:axId val="63092224"/>
+        <c:axId val="61799744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100412416"/>
+        <c:axId val="63092224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83900608"/>
+        <c:crossAx val="61799744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83900608"/>
+        <c:axId val="61799744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,13 +1585,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100412416"/>
+        <c:crossAx val="63092224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1923,11 +1921,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87385088"/>
-        <c:axId val="86073344"/>
+        <c:axId val="63329792"/>
+        <c:axId val="62424192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87385088"/>
+        <c:axId val="63329792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1945,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86073344"/>
+        <c:crossAx val="62424192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1955,7 +1953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86073344"/>
+        <c:axId val="62424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1992,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87385088"/>
+        <c:crossAx val="63329792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2576,11 +2574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87639552"/>
-        <c:axId val="86075648"/>
+        <c:axId val="63457792"/>
+        <c:axId val="62426496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87639552"/>
+        <c:axId val="63457792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86075648"/>
+        <c:crossAx val="62426496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86075648"/>
+        <c:axId val="62426496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87639552"/>
+        <c:crossAx val="63457792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3083,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="S3" sqref="S3:V15"/>
     </sheetView>
   </sheetViews>
@@ -3107,7 +3105,7 @@
     <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3302,7 +3300,7 @@
         <v>377226.75237167848</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3380,7 +3378,7 @@
         <v>165269.06088094553</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3443,18 +3441,18 @@
         <v>3900</v>
       </c>
       <c r="V5" s="11">
-        <v>75000</v>
+        <v>75130</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>78900</v>
+        <v>79030</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" si="1"/>
-        <v>134887.46299989594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>135017.46299989594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>270017.46299989591</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>304487.06088094553</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>166446.75237167845</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3762,7 +3760,7 @@
         <v>169514.06088094553</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3823,21 +3821,21 @@
         <v>4383.6369516535042</v>
       </c>
       <c r="U10" s="11">
-        <v>31200</v>
+        <v>7800</v>
       </c>
       <c r="V10" s="11">
         <v>76300</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="0"/>
-        <v>107500</v>
+        <v>84100</v>
       </c>
       <c r="X10" s="12">
         <f t="shared" si="1"/>
-        <v>163487.46299989594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>140087.46299989594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3914,7 +3912,7 @@
         <v>235814.83355361945</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3990,7 +3988,7 @@
         <v>169033.92770707383</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>298246.6077070738</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4143,7 +4141,7 @@
         <v>250964.83355361945</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4220,13 +4218,13 @@
         <v>159383.92770707383</v>
       </c>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -4240,12 +4238,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -4276,7 +4274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -4314,7 +4312,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4379,7 +4377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>-1373.815837057527</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -4509,7 +4507,7 @@
         <v>-321.65076096138819</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -4574,7 +4572,7 @@
         <v>1353.871209043366</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -4639,7 +4637,7 @@
         <v>4205.9986197914886</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -4704,7 +4702,7 @@
         <v>9052.7861231763327</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -4769,7 +4767,7 @@
         <v>17327.544791986678</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -4834,7 +4832,7 @@
         <v>30945.693748588084</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -4899,7 +4897,7 @@
         <v>51600.195925279462</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -4964,7 +4962,7 @@
         <v>77844.306419449145</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -5029,7 +5027,7 @@
         <v>100829.28687112352</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>108068.62611646316</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -5159,7 +5157,7 @@
         <v>101444.91585048511</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -5224,7 +5222,7 @@
         <v>92345.005007169064</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -5289,7 +5287,7 @@
         <v>83974.336359869762</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -5354,7 +5352,7 @@
         <v>76346.625731803113</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>69411.768801733138</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -5484,7 +5482,7 @@
         <v>63104.21955120506</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -5549,7 +5547,7 @@
         <v>57369.846455304127</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -5614,7 +5612,7 @@
         <v>52154.405868458292</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -5679,7 +5677,7 @@
         <v>47413.096244052984</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -5763,7 +5761,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5893,7 +5891,7 @@
         <v>-1237.5328644674091</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -5958,7 +5956,7 @@
         <v>-197.75714951582648</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>1466.5017649029676</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -6088,7 +6086,7 @@
         <v>4308.3900342093084</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -6153,7 +6151,7 @@
         <v>9145.8692271925338</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>17412.165795637768</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>31022.621933725437</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -6348,7 +6346,7 @@
         <v>51670.13063904069</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -6413,7 +6411,7 @@
         <v>77907.883431959359</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -6478,7 +6476,7 @@
         <v>100887.08415522371</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -6543,7 +6541,7 @@
         <v>108121.16910200879</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -6608,7 +6606,7 @@
         <v>101492.68220098114</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -6673,7 +6671,7 @@
         <v>92388.428962165461</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -6738,7 +6736,7 @@
         <v>84013.812682593751</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -6803,7 +6801,7 @@
         <v>76382.513297915822</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -6868,7 +6866,7 @@
         <v>69444.393861835604</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -6933,7 +6931,7 @@
         <v>63133.878696752763</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -6998,7 +6996,7 @@
         <v>57396.809314892947</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -7063,7 +7061,7 @@
         <v>52178.917558993584</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>47435.379599085063</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -7215,7 +7213,7 @@
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -7280,7 +7278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7345,7 +7343,7 @@
         <v>-1298.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7410,7 +7408,7 @@
         <v>-252.84392037416305</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7475,7 +7473,7 @@
         <v>1416.4228823044798</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>4262.8637773015917</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7605,7 +7603,7 @@
         <v>9104.4817209127905</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7670,7 +7668,7 @@
         <v>17374.540789928909</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7735,7 +7733,7 @@
         <v>30988.417383081021</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7800,7 +7798,7 @@
         <v>51639.035593000321</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7865,7 +7863,7 @@
         <v>77879.615208286297</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7930,7 +7928,7 @@
         <v>100861.38577006638</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7995,7 +7993,7 @@
         <v>108097.80693368394</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -8060,7 +8058,7 @@
         <v>101471.44386614037</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -8125,7 +8123,7 @@
         <v>92369.121385037477</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -8190,7 +8188,7 @@
         <v>83996.260339750137</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8255,7 +8253,7 @@
         <v>76366.556622603443</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8320,7 +8318,7 @@
         <v>69429.88779336981</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8385,7 +8383,7 @@
         <v>63120.691361783851</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8450,7 +8448,7 @@
         <v>57384.820828557575</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8515,7 +8513,7 @@
         <v>52168.018935052336</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8580,7 +8578,7 @@
         <v>47425.471759138476</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8664,7 +8662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -8729,7 +8727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8794,7 +8792,7 @@
         <v>-1072.7975413371182</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8859,7 +8857,7 @@
         <v>-462.5432193973802</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8924,7 +8922,7 @@
         <v>487.9359162503157</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8989,7 +8987,7 @@
         <v>2077.2370087624954</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -9054,7 +9052,7 @@
         <v>4770.1676515694826</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -9119,7 +9117,7 @@
         <v>9348.0962295563986</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -9184,7 +9182,7 @@
         <v>16866.482417857962</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -9249,7 +9247,7 @@
         <v>28261.05567537887</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -9314,7 +9312,7 @@
         <v>42734.689615525116</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -9379,7 +9377,7 @@
         <v>55408.863800220242</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>59408.21219880171</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -9509,7 +9507,7 @@
         <v>55769.74896186671</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -9574,7 +9572,7 @@
         <v>50770.125468065649</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -9639,7 +9637,7 @@
         <v>46166.477823116569</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -9704,7 +9702,7 @@
         <v>41973.317263804332</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -9769,7 +9767,7 @@
         <v>38161.008394423945</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -9834,7 +9832,7 @@
         <v>34693.392742890363</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -9899,7 +9897,7 @@
         <v>31540.872429698233</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -9964,7 +9962,7 @@
         <v>28673.520390634752</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -10029,7 +10027,7 @@
         <v>26066.836718758859</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -10113,7 +10111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -10178,7 +10176,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -10243,7 +10241,7 @@
         <v>-2032.9008073992691</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10308,7 +10306,7 @@
         <v>-1128.0916430902446</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10373,7 +10371,7 @@
         <v>251.8175145460585</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10438,7 +10436,7 @@
         <v>2533.3577705490084</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10503,7 +10501,7 @@
         <v>6358.5132112565598</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10568,7 +10566,7 @@
         <v>12835.126259756675</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -10633,7 +10631,7 @@
         <v>23449.093309573149</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -10698,7 +10696,7 @@
         <v>39515.176006102003</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -10763,7 +10761,7 @@
         <v>59911.816386371538</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -10828,7 +10826,7 @@
         <v>77775.728398294057</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -10893,7 +10891,7 @@
         <v>83426.285578198047</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -10958,7 +10956,7 @@
         <v>78323.574606690105</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -11023,7 +11021,7 @@
         <v>71299.603601721174</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -11088,7 +11086,7 @@
         <v>64835.896513405729</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -11153,7 +11151,7 @@
         <v>58946.780063178769</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -11218,7 +11216,7 @@
         <v>53592.578202964956</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -11283,7 +11281,7 @@
         <v>48722.614878762637</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -11348,7 +11346,7 @@
         <v>44295.185562242019</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -11413,7 +11411,7 @@
         <v>40268.350511129102</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -11478,7 +11476,7 @@
         <v>36607.591373753719</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -11562,7 +11560,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -11627,7 +11625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -11692,7 +11690,7 @@
         <v>-11486.239659399269</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -11757,7 +11755,7 @@
         <v>-9514.7633267266083</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11822,7 +11820,7 @@
         <v>-7003.5038507431964</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -11887,7 +11885,7 @@
         <v>-3391.6150709235671</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -11952,7 +11950,7 @@
         <v>2145.864586162646</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -12017,7 +12015,7 @@
         <v>11048.525212883327</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -12082,7 +12080,7 @@
         <v>25237.4941312214</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -12147,7 +12145,7 @@
         <v>46410.923545855207</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -12212,7 +12210,7 @@
         <v>73126.786074518022</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -12277,7 +12275,7 @@
         <v>96540.632012095215</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -12342,7 +12340,7 @@
         <v>104169.84897189197</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -12407,7 +12405,7 @@
         <v>97900.572991784036</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -12472,7 +12470,7 @@
         <v>89122.875135622628</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -12537,7 +12535,7 @@
         <v>81045.127385736647</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -12602,7 +12600,7 @@
         <v>73683.708482591188</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -12667,7 +12665,7 @@
         <v>66990.93493881321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -12732,7 +12730,7 @@
         <v>60903.461494005125</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -12797,7 +12795,7 @@
         <v>55369.157312395095</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -12862,7 +12860,7 @@
         <v>50335.597556722809</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -12927,7 +12925,7 @@
         <v>45759.634142475268</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -13011,7 +13009,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -13076,7 +13074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -13141,7 +13139,7 @@
         <v>-1481.7435413371186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -13206,7 +13204,7 @@
         <v>-419.76685576101687</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13271,7 +13269,7 @@
         <v>1264.6747592255217</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -13336,7 +13334,7 @@
         <v>4124.9109381389026</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -13401,7 +13399,7 @@
         <v>8979.0700489467108</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -13466,7 +13464,7 @@
         <v>17260.530179050653</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -13531,7 +13529,7 @@
         <v>30884.771373191699</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -13596,7 +13594,7 @@
         <v>51544.811947646391</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -13661,7 +13659,7 @@
         <v>77793.957348873635</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -13726,7 +13724,7 @@
         <v>100783.51498878215</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -13791,7 +13789,7 @@
         <v>108027.01531433463</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -13856,7 +13854,7 @@
         <v>101407.08784855009</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -13921,7 +13919,7 @@
         <v>92310.615914500857</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -13986,7 +13984,7 @@
         <v>83943.073548353204</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -14051,7 +14049,7 @@
         <v>76318.204994060783</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -14116,7 +14114,7 @@
         <v>69385.931767421935</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -14181,7 +14179,7 @@
         <v>63080.731338194877</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -14246,7 +14244,7 @@
         <v>57348.49353438578</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -14311,7 +14309,7 @@
         <v>52134.994122168886</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -14376,7 +14374,7 @@
         <v>47395.4492019717</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -14460,7 +14458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -14525,7 +14523,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -14590,7 +14588,7 @@
         <v>-1927.2108073992695</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -14655,7 +14653,7 @@
         <v>-824.73709763569946</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -14720,7 +14718,7 @@
         <v>896.51999388490117</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -14785,7 +14783,7 @@
         <v>3790.2247878292478</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -14850,7 +14848,7 @@
         <v>8674.8099123015691</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -14915,7 +14913,7 @@
         <v>16983.930054827797</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -14980,7 +14978,7 @@
         <v>30633.316714807286</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -15045,7 +15043,7 @@
         <v>51316.216803660558</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -15110,7 +15108,7 @@
         <v>77586.143581613782</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -15175,7 +15173,7 @@
         <v>100594.59338218228</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -15240,7 +15238,7 @@
         <v>107855.26839924385</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -15305,7 +15303,7 @@
         <v>101250.95428937666</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -15370,7 +15368,7 @@
         <v>92168.676315252291</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -15435,7 +15433,7 @@
         <v>83814.037549036337</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -15500,7 +15498,7 @@
         <v>76200.89954013635</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -15565,7 +15563,7 @@
         <v>69279.29044567245</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -15630,7 +15628,7 @@
         <v>62983.784682058984</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -15695,7 +15693,7 @@
         <v>57260.360210625877</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -15760,7 +15758,7 @@
         <v>52054.872918750792</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -15825,7 +15823,7 @@
         <v>47322.611744318885</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -15904,7 +15902,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15926,7 +15924,7 @@
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -15973,7 +15971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -15990,7 +15988,7 @@
       </c>
       <c r="E2">
         <f>CAPEX!$X5</f>
-        <v>134887.46299989594</v>
+        <v>135017.46299989594</v>
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
@@ -16010,7 +16008,7 @@
       </c>
       <c r="J2">
         <f>CAPEX!$X10</f>
-        <v>163487.46299989594</v>
+        <v>140087.46299989594</v>
       </c>
       <c r="K2">
         <f>CAPEX!$X11</f>
@@ -16033,7 +16031,7 @@
         <v>159383.92770707383</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -16058,8 +16056,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>H2-C2</f>
-        <v>-210780.00000000003</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
@@ -16084,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -16133,7 +16130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -16151,7 +16148,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>135129.99999999997</v>
+        <v>134999.99999999997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16164,7 +16161,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>28600</v>
+        <v>5070</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16182,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16229,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -16276,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -16325,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -16373,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -16391,7 +16388,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>106529.99999999997</v>
+        <v>129929.99999999997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16421,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -16468,11 +16465,10 @@
         <v>15150</v>
       </c>
       <c r="O11">
-        <f>O2-L2+L11</f>
-        <v>-9650</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -16517,11 +16513,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>O2-L2</f>
-        <v>-9650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -16568,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -16617,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -16665,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -16694,7 +16689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16705,7 +16700,7 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -16713,15 +16708,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <f>AVERAGE(B3:B15)</f>
+        <v>36062.342937580564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -16729,7 +16725,7 @@
         <v>19283.042118970367</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -16737,7 +16733,7 @@
         <v>43709.823692218881</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -16745,7 +16741,7 @@
         <v>44248.4220525376</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -16753,7 +16749,7 @@
         <v>10540.776519765759</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -16761,7 +16757,7 @@
         <v>11938.918689039821</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -16769,7 +16765,7 @@
         <v>50983.71612182937</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -16777,7 +16773,7 @@
         <v>47726.863400003029</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -16785,7 +16781,7 @@
         <v>48220.289169209609</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -16793,7 +16789,7 @@
         <v>37682.867713520049</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -16801,7 +16797,7 @@
         <v>44827.8721002112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -16809,7 +16805,7 @@
         <v>12139.814930199653</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -16817,7 +16813,7 @@
         <v>47419.574760442287</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -16858,7 +16854,7 @@
     <col min="34" max="34" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -16938,7 +16934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -17041,7 +17037,7 @@
         <v>-48948.476920599649</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -17143,7 +17139,7 @@
         <v>-43571.342655090586</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17254,7 +17250,7 @@
         <v>-37964.03051289227</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17366,7 +17362,7 @@
         <v>-31537.54840014999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17478,7 +17474,7 @@
         <v>-23441.347531315922</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17590,7 +17586,7 @@
         <v>-12212.576712097187</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17702,7 +17698,7 @@
         <v>4091.0378357845698</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17813,7 +17809,7 @@
         <v>27186.872368185366</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17924,7 +17920,7 @@
         <v>55650.375912999982</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -18035,7 +18031,7 @@
         <v>80652.986410715181</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -18147,7 +18143,7 @@
         <v>89726.534788819219</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18258,7 +18254,7 @@
         <v>84770.287370808801</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18369,7 +18365,7 @@
         <v>77186.251843826962</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18480,7 +18476,7 @@
         <v>70193.6516659224</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18591,7 +18587,7 @@
         <v>63818.730555487324</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18702,7 +18698,7 @@
         <v>58022.773186900609</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18813,7 +18809,7 @@
         <v>52750.587174084583</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18915,7 +18911,7 @@
         <v>47957.453385194603</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -19017,7 +19013,7 @@
         <v>43597.68489563145</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -19119,7 +19115,7 @@
         <v>39634.258996028584</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -19221,7 +19217,7 @@
         <v>36031.144541844173</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="J25" s="3">
         <v>29262</v>
       </c>
@@ -19232,7 +19228,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -19240,7 +19236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -19263,7 +19259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19298,7 +19294,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19333,7 +19329,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19362,7 +19358,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19391,7 +19387,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19420,7 +19416,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19449,7 +19445,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19492,7 +19488,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19521,7 +19517,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19550,7 +19546,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19579,7 +19575,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19608,7 +19604,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19637,7 +19633,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19666,7 +19662,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19695,7 +19691,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19724,7 +19720,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19753,7 +19749,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19782,7 +19778,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19811,7 +19807,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19840,7 +19836,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19869,7 +19865,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19898,12 +19894,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -19926,7 +19922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -19955,7 +19951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -19984,7 +19980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -20013,7 +20009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -20042,7 +20038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -20071,7 +20067,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -20100,7 +20096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2024</v>
       </c>
@@ -20129,7 +20125,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2025</v>
       </c>
@@ -20158,7 +20154,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2026</v>
       </c>
@@ -20187,7 +20183,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2027</v>
       </c>
@@ -20216,7 +20212,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2028</v>
       </c>
@@ -20245,7 +20241,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2029</v>
       </c>
@@ -20274,7 +20270,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2030</v>
       </c>
@@ -20303,7 +20299,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2031</v>
       </c>
@@ -20332,7 +20328,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2032</v>
       </c>
@@ -20361,7 +20357,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2033</v>
       </c>
@@ -20390,7 +20386,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2034</v>
       </c>
@@ -20419,7 +20415,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2035</v>
       </c>
@@ -20448,7 +20444,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2036</v>
       </c>
@@ -20477,7 +20473,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2037</v>
       </c>
@@ -20506,7 +20502,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2038</v>
       </c>
@@ -20558,7 +20554,7 @@
     <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -20623,7 +20619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -20688,7 +20684,7 @@
         <v>-2190.4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -20753,7 +20749,7 @@
         <v>-1745.8181818181818</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -20818,7 +20814,7 @@
         <v>-1152.7272727272725</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -20883,7 +20879,7 @@
         <v>-271.6754320060104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -20948,7 +20944,7 @@
         <v>1132.4363089952869</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -21013,7 +21009,7 @@
         <v>3421.2764900559437</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -21078,7 +21074,7 @@
         <v>7111.4683603895064</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -21143,7 +21139,7 @@
         <v>12637.031819549376</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -21208,7 +21204,7 @@
         <v>19631.750176938076</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -21273,7 +21269,7 @@
         <v>25757.144754234483</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -21338,7 +21334,7 @@
         <v>27732.128808666199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -21403,7 +21399,7 @@
         <v>26051.37036309313</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -21468,7 +21464,7 @@
         <v>23718.623165704772</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -21533,7 +21529,7 @@
         <v>21567.598654930509</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -21598,7 +21594,7 @@
         <v>19609.751845665145</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -21663,7 +21659,7 @@
         <v>17828.770755178317</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -21728,7 +21724,7 @@
         <v>16208.756878687314</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -21793,7 +21789,7 @@
         <v>14735.233526079377</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -21858,7 +21854,7 @@
         <v>13396.314333534016</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -21923,7 +21919,7 @@
         <v>12178.467575940011</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -22007,7 +22003,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -22072,7 +22068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -22137,7 +22133,7 @@
         <v>-643.25983705752697</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -22202,7 +22198,7 @@
         <v>-72.05439732502451</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -22267,7 +22263,7 @@
         <v>842.92575449791173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -22332,7 +22328,7 @@
         <v>2399.955043533037</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -22397,7 +22393,7 @@
         <v>5063.5476831790656</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -22462,7 +22458,7 @@
         <v>9614.8053492014751</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -22527,7 +22523,7 @@
         <v>17108.945253898943</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -22592,7 +22588,7 @@
         <v>28481.47643541612</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -22657,7 +22653,7 @@
         <v>42935.072124649887</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -22722,7 +22718,7 @@
         <v>55591.029717606398</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -22787,7 +22783,7 @@
         <v>59573.817578243667</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -22852,7 +22848,7 @@
         <v>55920.299306813948</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -22917,7 +22913,7 @@
         <v>50906.989418017678</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -22982,7 +22978,7 @@
         <v>46290.899595800242</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -23047,7 +23043,7 @@
         <v>42086.427966244024</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -23112,7 +23108,7 @@
         <v>38263.836305732766</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -23177,7 +23173,7 @@
         <v>34786.872662262016</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -23242,7 +23238,7 @@
         <v>31625.854174581553</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -23307,7 +23303,7 @@
         <v>28750.776522346863</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -23372,7 +23368,7 @@
         <v>26137.069565769867</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -23456,7 +23452,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -23521,7 +23517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -23586,7 +23582,7 @@
         <v>-1109.126864467409</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -23651,7 +23647,7 @@
         <v>-288.29714951582633</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -23716,7 +23712,7 @@
         <v>1015.2670541591659</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -23781,7 +23777,7 @@
         <v>3227.4028065609241</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -23846,7 +23842,7 @@
         <v>6989.4632439946645</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -23911,7 +23907,7 @@
         <v>13408.717198609498</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -23976,7 +23972,7 @@
         <v>23970.539617621173</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -24041,7 +24037,7 @@
         <v>39989.218104327483</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -24106,7 +24102,7 @@
         <v>60342.763748394696</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -24171,7 +24167,7 @@
         <v>78167.498727406026</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -24236,7 +24232,7 @@
         <v>83782.440422845291</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -24301,7 +24297,7 @@
         <v>78647.351738187601</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -24366,7 +24362,7 @@
         <v>71593.946448537085</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -24431,7 +24427,7 @@
         <v>65103.480919602007</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -24496,7 +24492,7 @@
         <v>59190.038614266297</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -24561,7 +24557,7 @@
         <v>53813.722340317247</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -24626,7 +24622,7 @@
         <v>48923.655003628359</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -24691,7 +24687,7 @@
         <v>44477.949312119948</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -24756,7 +24752,7 @@
         <v>40434.499374654493</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -24821,7 +24817,7 @@
         <v>36758.635795140442</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -24905,7 +24901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -24970,7 +24966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -25035,7 +25031,7 @@
         <v>-1540.4913604115791</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -25100,7 +25096,7 @@
         <v>-680.4466912832537</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -25165,7 +25161,7 @@
         <v>658.76747073423201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -25230,7 +25226,7 @@
         <v>2903.3122761746204</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -25295,7 +25291,7 @@
         <v>6694.8354890980245</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -25360,7 +25356,7 @@
         <v>13140.873785067099</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -25425,7 +25421,7 @@
         <v>23727.045605309897</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -25490,7 +25486,7 @@
         <v>39767.859911317231</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -25555,7 +25551,7 @@
         <v>60141.529027476296</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -25620,7 +25616,7 @@
         <v>77984.558072025655</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -25685,7 +25681,7 @@
         <v>83616.130736135863</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -25750,7 +25746,7 @@
         <v>78496.161113906302</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -25815,7 +25811,7 @@
         <v>71456.500426463172</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -25880,7 +25876,7 @@
         <v>64978.529990443909</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -25945,7 +25941,7 @@
         <v>59076.446860486205</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -26010,7 +26006,7 @@
         <v>53710.457109608076</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -26075,7 +26071,7 @@
         <v>48829.777521165473</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -26140,7 +26136,7 @@
         <v>44392.606146244601</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -26205,7 +26201,7 @@
         <v>40356.91467840418</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -26270,7 +26266,7 @@
         <v>36688.104253094702</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -26354,7 +26350,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -26419,7 +26415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -26484,7 +26480,7 @@
         <v>-11344.748312411579</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -26549,7 +26545,7 @@
         <v>-9386.1348294650707</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -26614,7 +26610,7 @@
         <v>-6886.5688532327094</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -26679,7 +26675,7 @@
         <v>-3285.3105277322147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -26744,7 +26740,7 @@
         <v>2242.5050799729665</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -26809,7 +26805,7 @@
         <v>11136.380207256343</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -26874,7 +26870,7 @@
         <v>25317.362307924141</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -26939,7 +26935,7 @@
         <v>46483.530979221337</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -27004,7 +27000,7 @@
         <v>73192.792832123596</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -27069,7 +27065,7 @@
         <v>96600.638155373017</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -27134,7 +27130,7 @@
         <v>104224.40001123541</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -27199,7 +27195,7 @@
         <v>97950.164845732623</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -27264,7 +27260,7 @@
         <v>89167.958639212258</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -27329,7 +27325,7 @@
         <v>81086.112388999929</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -27394,7 +27390,7 @@
         <v>73720.967576466894</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -27459,7 +27455,7 @@
         <v>67024.806842336591</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -27524,7 +27520,7 @@
         <v>60934.254133571834</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -27589,7 +27585,7 @@
         <v>55397.1506210921</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -27654,7 +27650,7 @@
         <v>50361.046019174632</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -27719,7 +27715,7 @@
         <v>45782.769108340566</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -27803,7 +27799,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -27868,7 +27864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -27933,7 +27929,7 @@
         <v>-7392.4157164674089</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -27998,7 +27994,7 @@
         <v>-5793.1051967885533</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -28063,7 +28059,7 @@
         <v>-3620.1782780722383</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -28128,7 +28124,7 @@
         <v>-315.86455031360538</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -28193,7 +28189,7 @@
         <v>4942.0014230807928</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -28258,7 +28254,7 @@
         <v>13590.46779189982</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -28323,7 +28319,7 @@
         <v>27548.351021236394</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -28388,7 +28384,7 @@
         <v>48511.702536777928</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -28453,7 +28449,7 @@
         <v>75036.585157175039</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -28518,7 +28514,7 @@
         <v>98276.812996328881</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -28583,7 +28579,7 @@
         <v>105748.19532119529</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -28648,7 +28644,7 @@
         <v>99335.433309332511</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -28713,7 +28709,7 @@
         <v>90427.293606121239</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -28778,7 +28774,7 @@
         <v>82230.962358917197</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -28843,7 +28839,7 @@
         <v>74761.740276391676</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -28908,7 +28904,7 @@
         <v>67970.963842268204</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -28973,7 +28969,7 @@
         <v>61794.396860782392</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -29038,7 +29034,7 @@
         <v>56179.098554919889</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -29103,7 +29099,7 @@
         <v>51071.907777199893</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -29168,7 +29164,7 @@
         <v>46429.007070181709</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>

--- a/tumlknexpectimax/excel_data/input_data_business_munich_phillipson.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_business_munich_phillipson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="825" windowWidth="13680" windowHeight="11070" tabRatio="847" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="13680" windowHeight="11010" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -796,6 +796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -874,7 +875,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>83454.683914942696</c:v>
@@ -889,7 +890,7 @@
                   <c:v>83454.683914942696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83454.683914942696</c:v>
+                  <c:v>46411.622601241266</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>83454.683914942696</c:v>
@@ -990,7 +991,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3844.3769660028456</c:v>
@@ -1005,7 +1006,7 @@
                   <c:v>3844.3769660028456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5652.0684567357575</c:v>
+                  <c:v>1539.8347599557078</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3844.3769660028456</c:v>
@@ -1020,13 +1021,13 @@
                   <c:v>3663.5010909611156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7526.1810909611158</c:v>
+                  <c:v>16649.727205824103</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3778.2685110852781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3663.5010909611156</c:v>
+                  <c:v>1452.7127519276221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1116,7 @@
                   <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3900</c:v>
+                  <c:v>27300</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5940</c:v>
@@ -1231,13 +1232,13 @@
                   <c:v>75130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210130</c:v>
+                  <c:v>210910</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>211248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74640</c:v>
+                  <c:v>323440</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>76275</c:v>
@@ -1252,7 +1253,7 @@
                   <c:v>92100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213050</c:v>
+                  <c:v>153050</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>170800</c:v>
@@ -1279,11 +1280,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62343680"/>
-        <c:axId val="61797440"/>
+        <c:axId val="98153984"/>
+        <c:axId val="97191616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62343680"/>
+        <c:axId val="98153984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,13 +1306,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61797440"/>
+        <c:crossAx val="97191616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1319,7 +1321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61797440"/>
+        <c:axId val="97191616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,19 +1344,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62343680"/>
+        <c:crossAx val="98153984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1481,46 +1485,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>19283.042119999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>43709.823689999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>44248.422050000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762709999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>11938.91869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>50983.716119999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>47726.863400000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>48220.289169999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>37682.867709999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>44827.872100000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>12139.81493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>47419.574760000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>50088.476920000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,11 +1544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63092224"/>
-        <c:axId val="61799744"/>
+        <c:axId val="121440768"/>
+        <c:axId val="97193920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63092224"/>
+        <c:axId val="121440768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61799744"/>
+        <c:crossAx val="97193920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1562,7 +1566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61799744"/>
+        <c:axId val="97193920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63092224"/>
+        <c:crossAx val="121440768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1921,11 +1925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63329792"/>
-        <c:axId val="62424192"/>
+        <c:axId val="124364288"/>
+        <c:axId val="97195648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63329792"/>
+        <c:axId val="124364288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1949,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62424192"/>
+        <c:crossAx val="97195648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1953,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62424192"/>
+        <c:axId val="97195648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +1996,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63329792"/>
+        <c:crossAx val="124364288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2574,11 +2578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63457792"/>
-        <c:axId val="62426496"/>
+        <c:axId val="101485056"/>
+        <c:axId val="101523456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63457792"/>
+        <c:axId val="101485056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62426496"/>
+        <c:crossAx val="101523456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62426496"/>
+        <c:axId val="101523456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,7 +2611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63457792"/>
+        <c:crossAx val="101485056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2648,7 +2652,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2693,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2734,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2775,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:V15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,7 +3183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -3215,13 +3219,13 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="X2" s="13">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3280,10 +3284,10 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S3" s="11">
-        <v>83454.683914942696</v>
+        <v>46411.622601241266</v>
       </c>
       <c r="T3" s="11">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U3" s="11">
         <v>2000</v>
@@ -3292,15 +3296,13 @@
         <v>286120</v>
       </c>
       <c r="W3" s="11">
-        <f>SUM(U3,V3)</f>
         <v>288120</v>
       </c>
       <c r="X3" s="12">
-        <f>S3+T3+U3+V3</f>
-        <v>377226.75237167848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>336071.45736119698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3370,15 +3372,13 @@
         <v>75000</v>
       </c>
       <c r="W4" s="11">
-        <f t="shared" ref="W4:W15" si="0">SUM(U4,V4)</f>
         <v>77970</v>
       </c>
       <c r="X4" s="12">
-        <f t="shared" ref="X4:X14" si="1">S4+T4+U4+V4</f>
         <v>165269.06088094553</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3444,15 +3444,13 @@
         <v>75130</v>
       </c>
       <c r="W5" s="11">
-        <f t="shared" si="0"/>
         <v>79030</v>
       </c>
       <c r="X5" s="12">
-        <f t="shared" si="1"/>
         <v>135017.46299989594</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -3516,21 +3514,19 @@
         <v>4383.6369516535042</v>
       </c>
       <c r="U6" s="11">
-        <v>3900</v>
+        <v>27300</v>
       </c>
       <c r="V6" s="11">
-        <v>210130</v>
+        <v>210910</v>
       </c>
       <c r="W6" s="11">
-        <f t="shared" si="0"/>
-        <v>214030</v>
+        <v>238210</v>
       </c>
       <c r="X6" s="12">
-        <f t="shared" si="1"/>
-        <v>270017.46299989591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>294197.46299989591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -3600,15 +3596,13 @@
         <v>211248</v>
       </c>
       <c r="W7" s="11">
-        <f t="shared" si="0"/>
         <v>217188</v>
       </c>
       <c r="X7" s="12">
-        <f t="shared" si="1"/>
         <v>304487.06088094553</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -3664,27 +3658,25 @@
         <v>685372.28279667499</v>
       </c>
       <c r="S8" s="11">
-        <v>83454.683914942696</v>
+        <v>46411.622601241266</v>
       </c>
       <c r="T8" s="11">
-        <v>5652.0684567357575</v>
+        <v>1539.8347599557078</v>
       </c>
       <c r="U8" s="11">
         <v>2700</v>
       </c>
       <c r="V8" s="11">
-        <v>74640</v>
+        <v>323440</v>
       </c>
       <c r="W8" s="11">
-        <f t="shared" si="0"/>
-        <v>77340</v>
+        <v>326140</v>
       </c>
       <c r="X8" s="12">
-        <f t="shared" si="1"/>
-        <v>166446.75237167845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>374091.45736119698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -3752,15 +3744,13 @@
         <v>76275</v>
       </c>
       <c r="W9" s="11">
-        <f t="shared" si="0"/>
         <v>82215</v>
       </c>
       <c r="X9" s="12">
-        <f t="shared" si="1"/>
         <v>169514.06088094553</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -3827,15 +3817,13 @@
         <v>76300</v>
       </c>
       <c r="W10" s="11">
-        <f t="shared" si="0"/>
         <v>84100</v>
       </c>
       <c r="X10" s="12">
-        <f t="shared" si="1"/>
         <v>140087.46299989594</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -3904,15 +3892,13 @@
         <v>161650</v>
       </c>
       <c r="W11" s="11">
-        <f t="shared" si="0"/>
         <v>163650</v>
       </c>
       <c r="X11" s="12">
-        <f t="shared" si="1"/>
         <v>235814.83355361945</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -3980,15 +3966,13 @@
         <v>92100</v>
       </c>
       <c r="W12" s="11">
-        <f t="shared" si="0"/>
         <v>96500</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" si="1"/>
         <v>169033.92770707383</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4048,24 +4032,22 @@
         <v>68870.426616112716</v>
       </c>
       <c r="T13" s="11">
-        <v>7526.1810909611158</v>
+        <v>16649.727205824103</v>
       </c>
       <c r="U13" s="11">
         <v>8800</v>
       </c>
       <c r="V13" s="11">
-        <v>213050</v>
+        <v>153050</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" si="0"/>
-        <v>221850</v>
+        <v>161850</v>
       </c>
       <c r="X13" s="12">
-        <f t="shared" si="1"/>
-        <v>298246.6077070738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>247370.15382193681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4133,15 +4115,13 @@
         <v>170800</v>
       </c>
       <c r="W14" s="11">
-        <f t="shared" si="0"/>
         <v>178800</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" si="1"/>
         <v>250964.83355361945</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4201,7 +4181,7 @@
         <v>68870.426616112716</v>
       </c>
       <c r="T15" s="11">
-        <v>3663.5010909611156</v>
+        <v>1452.7127519276221</v>
       </c>
       <c r="U15" s="11">
         <v>8800</v>
@@ -4210,12 +4190,10 @@
         <v>78050</v>
       </c>
       <c r="W15" s="11">
-        <f t="shared" si="0"/>
         <v>86850</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>159383.92770707383</v>
+        <v>157173.13936804034</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -4224,7 +4202,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -4238,12 +4216,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -4263,7 +4241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -4274,7 +4252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -15980,7 +15958,7 @@
       </c>
       <c r="C2">
         <f>CAPEX!$X3</f>
-        <v>377226.75237167848</v>
+        <v>336071.45736119698</v>
       </c>
       <c r="D2">
         <f>CAPEX!$X4</f>
@@ -15992,7 +15970,7 @@
       </c>
       <c r="F2">
         <f>CAPEX!$X6</f>
-        <v>270017.46299989591</v>
+        <v>294197.46299989591</v>
       </c>
       <c r="G2">
         <f>CAPEX!$X7</f>
@@ -16000,7 +15978,7 @@
       </c>
       <c r="H2">
         <f>CAPEX!$X8</f>
-        <v>166446.75237167845</v>
+        <v>374091.45736119698</v>
       </c>
       <c r="I2">
         <f>CAPEX!$X9</f>
@@ -16020,7 +15998,7 @@
       </c>
       <c r="M2">
         <f>CAPEX!$X13</f>
-        <v>298246.6077070738</v>
+        <v>247370.15382193681</v>
       </c>
       <c r="N2">
         <f>CAPEX!$X14</f>
@@ -16028,7 +16006,7 @@
       </c>
       <c r="O2">
         <f>CAPEX!$X15</f>
-        <v>159383.92770707383</v>
+        <v>157173.13936804034</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -16148,7 +16126,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>134999.99999999997</v>
+        <v>159179.99999999997</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16294,14 +16272,14 @@
       </c>
       <c r="G8">
         <f>IF(G2-H2&gt;0,G2-H2,0)</f>
-        <v>138040.30850926708</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <f>IF(I2-H2&gt;0,I2-H2,0)</f>
-        <v>3067.3085092670808</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -16388,7 +16366,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>129929.99999999997</v>
+        <v>154109.99999999997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16458,7 +16436,7 @@
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>62431.774153454346</v>
+        <v>11555.320268317359</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
@@ -16507,7 +16485,7 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>129212.67999999996</v>
+        <v>78336.226114862977</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -16602,7 +16580,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>47281.774153454346</v>
+        <v>-3594.6797316826414</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -16651,7 +16629,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>138862.67999999996</v>
+        <v>90197.014453896467</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16689,8 +16667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16708,117 +16686,116 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042118970367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19283.042119999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823692218881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43709.823689999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.4220525376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44248.422050000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19212.762709999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.918689039821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11938.91869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.71612182937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50983.716119999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>47726.863400003029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47726.863400000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48220.289169209609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48220.289169999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>37682.867713520049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37682.867709999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.8721002112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44827.872100000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.814930199653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12139.81493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760442287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47419.574760000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
     </row>
   </sheetData>
@@ -16982,31 +16959,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -17014,27 +16991,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-48804.476920000001</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-48948.476920000001</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -17084,31 +17061,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920599649</v>
+        <v>-48372.476920000001</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920599649</v>
+        <v>-48288.476920000001</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-47652.476920599649</v>
+        <v>-47652.476920000001</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920599649</v>
+        <v>-48552.476920000001</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920599649</v>
+        <v>-48480.476920000001</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920599649</v>
+        <v>-47928.476920000001</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17116,27 +17093,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018726954</v>
+        <v>-43974.979018181817</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615382363314</v>
+        <v>-43898.615381818185</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433564181498</v>
+        <v>-43320.433563636361</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615382363314</v>
+        <v>-44138.615381818185</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.16083690877</v>
+        <v>-44073.160836363633</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342655090586</v>
+        <v>-43571.342654545457</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -17195,31 +17172,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-47736.476920599649</v>
+        <v>-47736.476920000001</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-47616.476920599649</v>
+        <v>-47616.476920000001</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-45444.476920599649</v>
+        <v>-45444.476920000001</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-48000.476920599649</v>
+        <v>-48000.476920000001</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-47892.476920599649</v>
+        <v>-47892.476920000001</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-45936.476920599649</v>
+        <v>-45936.476920000001</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -17227,27 +17204,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-39451.633818677394</v>
+        <v>-39451.633818181814</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-39352.460264958383</v>
+        <v>-39352.460264462803</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-37557.418942644334</v>
+        <v>-37557.418942148754</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-39669.81563685921</v>
+        <v>-39669.81563636363</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-39580.5594385121</v>
+        <v>-39580.559438016528</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-37964.03051289227</v>
+        <v>-37964.03051239669</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -17307,31 +17284,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-46908.476920599649</v>
+        <v>-46908.476920000001</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-46572.476920599649</v>
+        <v>-46572.476920000001</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-41052.476920599649</v>
+        <v>-41052.476920000001</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-47244.476920599649</v>
+        <v>-47244.476920000001</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-46932.476920599649</v>
+        <v>-46932.476920000001</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -17339,27 +17316,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-35243.03299819657</v>
+        <v>-35243.032997746042</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-34990.591225093638</v>
+        <v>-34990.591224643118</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-30843.333524116933</v>
+        <v>-30843.333523666406</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-35495.474771299501</v>
+        <v>-35495.474770848974</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-35261.064553418211</v>
+        <v>-35261.064552967684</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-31537.54840014999</v>
+        <v>-31537.548399699466</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -17419,31 +17396,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-45744.476920599649</v>
+        <v>-45744.476920000001</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-45132.476920599649</v>
+        <v>-45132.476920000001</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-32556.476920599649</v>
+        <v>-32556.476920000001</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-46212.476920599649</v>
+        <v>-46212.476920000001</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-45648.476920599649</v>
+        <v>-45648.476920000001</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-34320.476920599649</v>
+        <v>-34320.476920000001</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -17451,27 +17428,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-31244.093245406486</v>
+        <v>-31244.093244996919</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-30826.089010723063</v>
+        <v>-30826.089010313495</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-22236.511796051938</v>
+        <v>-22236.511795642371</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-31563.743542517339</v>
+        <v>-31563.743542107772</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-31178.523953691441</v>
+        <v>-31178.523953281874</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-23441.347531315922</v>
+        <v>-23441.347530906354</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -17531,31 +17508,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-44160.476920599649</v>
+        <v>-44160.476920000001</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-43092.476920599649</v>
+        <v>-43092.476920000001</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-16260.476920599649</v>
+        <v>-16260.476920000001</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-44760.476920599649</v>
+        <v>-44760.476920000001</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-43812.476920599649</v>
+        <v>-43812.476920000001</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-19668.476920599649</v>
+        <v>-19668.476920000001</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -17563,27 +17540,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-27420.181756462011</v>
+        <v>-27420.181756089674</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-26757.037783434833</v>
+        <v>-26757.037783062497</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-10096.476843111588</v>
+        <v>-10096.476842739254</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-27792.734550297504</v>
+        <v>-27792.734549925168</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-27204.101136037425</v>
+        <v>-27204.101135665089</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-12212.576712097187</v>
+        <v>-12212.576711724852</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -17643,31 +17620,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-41976.476920599649</v>
+        <v>-41976.476920000001</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-40176.476920599649</v>
+        <v>-40176.476920000001</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>13643.523079400351</v>
+        <v>13643.523079999999</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-42828.476920599649</v>
+        <v>-42828.476920000001</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-41172.476920599649</v>
+        <v>-41172.476920000001</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>7247.523079400351</v>
+        <v>7247.523079999999</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -17675,27 +17652,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-23694.626897182559</v>
+        <v>-23694.626896844075</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-22678.573823085761</v>
+        <v>-22678.573822747276</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>7701.4130924085284</v>
+        <v>7701.4130927470142</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-24175.558685588378</v>
+        <v>-24175.558685249893</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-23240.789857419324</v>
+        <v>-23240.789857080836</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>4091.0378357845698</v>
+        <v>4091.0378361230555</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -17754,31 +17731,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-39000.476920599649</v>
+        <v>-39000.476920000001</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-36072.476920599649</v>
+        <v>-36072.476920000001</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>64451.523079400351</v>
+        <v>64451.523079999999</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-40128.476920599649</v>
+        <v>-40128.476920000001</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-37512.476920599649</v>
+        <v>-37512.476920000001</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>52979.523079400351</v>
+        <v>52979.523079999999</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -17786,27 +17763,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-20013.411346675013</v>
+        <v>-20013.411346367298</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-18510.884376495505</v>
+        <v>-18510.884376187791</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>33073.822300528031</v>
+        <v>33073.822300835745</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-20592.253704039249</v>
+        <v>-20592.253703731534</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-19249.83206674772</v>
+        <v>-19249.832066440009</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>27186.872368185366</v>
+        <v>27186.872368493081</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -17865,31 +17842,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-34944.476920599649</v>
+        <v>-34944.476920000001</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-30312.476920599649</v>
+        <v>-30312.476920000001</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>138143.52307940036</v>
+        <v>138143.52308000001</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-36480.476920599649</v>
+        <v>-36480.476920000001</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-32328.476920599649</v>
+        <v>-32328.476920000001</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>119291.52307940036</v>
+        <v>119291.52308</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -17897,27 +17874,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-16301.856381028425</v>
+        <v>-16301.856380748684</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-14140.994195896941</v>
+        <v>-14140.994195617201</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>64444.973044713872</v>
+        <v>64444.973044993611</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-17018.411717030576</v>
+        <v>-17018.411716750834</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-15081.473074399764</v>
+        <v>-15081.473074120024</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>55650.375912999982</v>
+        <v>55650.375913279713</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -17976,31 +17953,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-29472.476920599649</v>
+        <v>-29472.476920000001</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-22344.476920599649</v>
+        <v>-22344.476920000001</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>216887.52307940036</v>
+        <v>216887.52308000001</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-31560.476920599649</v>
+        <v>-31560.476920000001</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-25152.476920599649</v>
+        <v>-25152.476920000001</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>190175.52307940036</v>
+        <v>190175.52308000001</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -18008,27 +17985,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-12499.207269564333</v>
+        <v>-12499.207269310022</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-9476.2394458052604</v>
+        <v>-9476.2394455509511</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>91981.481992680987</v>
+        <v>91981.481992935311</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-13384.72309672608</v>
+        <v>-13384.723096471771</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-10667.105558195199</v>
+        <v>-10667.105557940889</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>80652.986410715181</v>
+        <v>80652.98641096949</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -18088,31 +18065,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-22128.476920599649</v>
+        <v>-22128.476920000001</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-11508.476920599649</v>
+        <v>-11508.476920000001</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>264167.52307940036</v>
+        <v>264167.52308000001</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-24960.476920599649</v>
+        <v>-24960.476920000001</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-15384.476920599649</v>
+        <v>-15384.476920000001</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>232727.52307940036</v>
+        <v>232727.52308000001</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -18120,27 +18097,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-8531.4857820334582</v>
+        <v>-8531.4857818022683</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-4437.0160482918336</v>
+        <v>-4437.0160480606437</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>101848.01580848369</v>
+        <v>101848.01580871489</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-9623.3443776978911</v>
+        <v>-9623.3443774667012</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-5931.3818381206975</v>
+        <v>-5931.3818378895076</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>89726.534788819219</v>
+        <v>89726.534789050405</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -18199,31 +18176,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-12480.476920599649</v>
+        <v>-12480.476920000001</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>3083.523079400351</v>
+        <v>3083.523079999999</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>274307.52307940036</v>
+        <v>274307.52308000001</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-16272.476920599649</v>
+        <v>-16272.476920000001</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-2268.476920599649</v>
+        <v>-2268.476920000001</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>241859.52307940036</v>
+        <v>241859.52308000001</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -18231,27 +18208,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-4374.3310232884887</v>
+        <v>-4374.3310230783154</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>1080.7560282398995</v>
+        <v>1080.7560284500726</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>96143.113421181028</v>
+        <v>96143.113421391201</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-5703.4038901219283</v>
+        <v>-5703.403889911755</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-795.08732178451146</v>
+        <v>-795.08732157433849</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>84770.287370808801</v>
+        <v>84770.287371018989</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -18310,31 +18287,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>143.52307940035098</v>
+        <v>143.52307999999903</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>22127.523079400351</v>
+        <v>22127.523079999999</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>274763.52307940036</v>
+        <v>274763.52308000001</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-4896.476920599649</v>
+        <v>-4896.476920000001</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>14891.523079400351</v>
+        <v>14891.523079999999</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>242243.52307940036</v>
+        <v>242243.52308000001</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -18342,27 +18319,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>45.730876149642263</v>
+        <v>45.730876340708612</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>7050.5107726941205</v>
+        <v>7050.5107728851872</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>87548.126035767767</v>
+        <v>87548.126035958834</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-1560.1684451105548</v>
+        <v>-1560.1684449194884</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>4744.8981757419806</v>
+        <v>4744.8981759330472</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>77186.251843826962</v>
+        <v>77186.251844018043</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -18421,31 +18398,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>16223.523079400351</v>
+        <v>16223.523079999999</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>46247.523079400351</v>
+        <v>46247.523079999999</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>274847.52307940036</v>
+        <v>274847.52308000001</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>9587.523079400351</v>
+        <v>9587.523079999999</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>36587.523079400351</v>
+        <v>36587.523079999999</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>242327.52307940036</v>
+        <v>242327.52308000001</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -18453,27 +18430,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>4699.3767499383421</v>
+        <v>4699.3767501120383</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>13396.260087152656</v>
+        <v>13396.260087326353</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>79613.537294959489</v>
+        <v>79613.537295133181</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>2777.1639260056818</v>
+        <v>2777.1639261793784</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>10598.102178896252</v>
+        <v>10598.102179069949</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>70193.6516659224</v>
+        <v>70193.651666096106</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
@@ -18532,31 +18509,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>36215.523079400351</v>
+        <v>36215.523079999999</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>75275.523079400358</v>
+        <v>75275.523079999999</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>274883.52307940036</v>
+        <v>274883.52308000001</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>27551.523079400351</v>
+        <v>27551.523079999999</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>62699.523079400351</v>
+        <v>62699.523079999999</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>242351.52307940036</v>
+        <v>242351.52308000001</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -18564,27 +18541,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>9536.6791178492731</v>
+        <v>9536.6791180071796</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>19822.397911044751</v>
+        <v>19822.397911202654</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>72385.422920572717</v>
+        <v>72385.42292073062</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>7255.1771305413986</v>
+        <v>7255.1771306993051</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>16510.74405689149</v>
+        <v>16510.744057049396</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>63818.730555487324</v>
+        <v>63818.730555645234</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
@@ -18643,31 +18620,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>60251.523079400351</v>
+        <v>60251.523079999999</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>108299.52307940036</v>
+        <v>108299.52308</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>274907.52307940036</v>
+        <v>274907.52308000001</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>49187.523079400351</v>
+        <v>49187.523079999999</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>92459.523079400358</v>
+        <v>92459.523079999999</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>242375.52307940036</v>
+        <v>242375.52308000001</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -18675,27 +18652,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>14423.735587591096</v>
+        <v>14423.735587734647</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>25926.044775680661</v>
+        <v>25926.044775824208</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>65810.675336978238</v>
+        <v>65810.675337121793</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>11775.101953370673</v>
+        <v>11775.101953514224</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>22134.074713673112</v>
+        <v>22134.074713816663</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>58022.773186900609</v>
+        <v>58022.773187044164</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -18754,31 +18731,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>87899.523079400358</v>
+        <v>87899.523079999999</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>143159.52307940036</v>
+        <v>143159.52308000001</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>274919.52307940036</v>
+        <v>274919.52308000001</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>74075.523079400358</v>
+        <v>74075.523079999999</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>123827.52307940036</v>
+        <v>123827.52308</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>242387.52307940036</v>
+        <v>242387.52308000001</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -18786,27 +18763,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>19129.497244136117</v>
+        <v>19129.497244266615</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>31155.683287899723</v>
+        <v>31155.683288030225</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>59830.498219609697</v>
+        <v>59830.498219740199</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>16120.992070973101</v>
+        <v>16120.992071103601</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>26948.476834804573</v>
+        <v>26948.476834935071</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>52750.587174084583</v>
+        <v>52750.587174215085</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -18856,31 +18833,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>117983.52307940036</v>
+        <v>117983.52308</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>176759.52307940036</v>
+        <v>176759.52308000001</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>101171.52307940036</v>
+        <v>101171.52308</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>154031.52307940036</v>
+        <v>154031.52308000001</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -18888,27 +18865,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>23342.411059315404</v>
+        <v>23342.411059434038</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>34970.92931858974</v>
+        <v>34970.929318708375</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>54393.736153853795</v>
+        <v>54393.73615397243</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>20016.246485766333</v>
+        <v>20016.246485884967</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>30474.31568382747</v>
+        <v>30474.315683946108</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>47957.453385194603</v>
+        <v>47957.453385313238</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -18958,31 +18935,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>148739.52307940036</v>
+        <v>148739.52308000001</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>206135.52307940036</v>
+        <v>206135.52308000001</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>128843.52307940036</v>
+        <v>128843.52308</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>180479.52307940036</v>
+        <v>180479.52308000001</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -18990,27 +18967,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>26752.110632734504</v>
+        <v>26752.110632842356</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>37075.285738363731</v>
+        <v>37075.285738471583</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>49448.851048957993</v>
+        <v>49448.851049065845</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>23173.640148700786</v>
+        <v>23173.640148808638</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>32460.828624452944</v>
+        <v>32460.828624560796</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>43597.68489563145</v>
+        <v>43597.684895739309</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
@@ -19060,31 +19037,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>177995.52307940036</v>
+        <v>177995.52308000001</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>229391.52307940036</v>
+        <v>229391.52308000001</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>155171.52307940036</v>
+        <v>155171.52308000001</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>201443.52307940036</v>
+        <v>201443.52308000001</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -19092,27 +19069,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>29103.690354834955</v>
+        <v>29103.690354933002</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>37507.347051356715</v>
+        <v>37507.347051454766</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>44953.500953598159</v>
+        <v>44953.50095369621</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>25371.7839722096</v>
+        <v>25371.783972307647</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>32937.625723736084</v>
+        <v>32937.625723834128</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>39634.258996028584</v>
+        <v>39634.258996126635</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -19162,31 +19139,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>50088.476920000001</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>203783.52307940036</v>
+        <v>203783.52308000001</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>246191.52307940036</v>
+        <v>246191.52308000001</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>274931.52308000001</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>178391.52307940036</v>
+        <v>178391.52308000001</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>216539.52307940036</v>
+        <v>216539.52308000001</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>242399.52308000001</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -19194,27 +19171,27 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>30291.122202063849</v>
+        <v>30291.122202152983</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>36594.801179311726</v>
+        <v>36594.801179400856</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>40866.819048725607</v>
+        <v>40866.819048814745</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>26516.763199274796</v>
+        <v>26516.76319936393</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>32187.220321139823</v>
+        <v>32187.220321228957</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>36031.144541844173</v>
+        <v>36031.14454193331</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
